--- a/data/long_razon/BESCORE_R-Edad-long_razon.xlsx
+++ b/data/long_razon/BESCORE_R-Edad-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.5783143165227403</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.4045873003525293</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.4730580542895763</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.60448007704365</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.2292442311464132</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.6532365338598795</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1.227091631205617</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.24384998297896</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.04920625835911774</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.2825326504735088</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.6151289025432877</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.7431391403282379</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>0.04628183347007615</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>-0.3709650965185212</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>-0.05779423089570066</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.7146877289747443</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.00624151105449088</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.04540168503658005</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.7694312757427207</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.2041104240131004</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.7712831297214057</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.5892181943730257</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.4241237233321993</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.2898005870822019</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.5556222207042055</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.7030864653587054</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.3935076126816532</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.1485622648345498</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.5362458976878247</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>-0.3180298625337394</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>-0.4235884387425976</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.067244550950175</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.154179558394287</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-0.3482959871228503</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.064161537276207</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.5037087511904228</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>2.136816362692465</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.001257702638856461</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.303989814791687</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.07381979810452424</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>-0.5159008081517521</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.255871937792798</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.2974302851510318</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>-0.164217733337168</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0.2916430295910579</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.6036528123250445</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.8062359428242106</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.04562333740028862</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.3579753893550479</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.2466620241633223</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.6410908190060237</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.3610255072282649</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.002168864404325816</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.00815672376317636</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.1084935372768707</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.6224983826276276</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.5679322023822775</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0.02473896725604505</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.1619014684129933</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>-0.1841638940034933</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.7317458236287704</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.1283592281973866</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.2904464739706259</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.05339792421278937</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.6413609803964231</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.7366538714637721</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.02996575490278488</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1923455649299445</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.2280092115140398</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.3693719573933662</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.7079092545358171</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.2190408593667646</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.1770733729295464</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.07330659312622552</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>-0.4304854252768808</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>-0.4060015107542499</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.65757487287415</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3753043311213635</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.137252097043578</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2958299744531271</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.5057102164242753</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.7958977344525765</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.2904194180168928</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.3340373988617265</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.2137288432567468</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>-0.5078929141014948</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.9377622090792691</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.2462438873366098</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0.5254425942978419</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>0.140485996422215</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,21 +1009,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.5393665690145439</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.701844834894061</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.007754188190831166</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.5447249422432404</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.306961693159391</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.4621089978128398</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>1.217517005471491</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.02789351823006603</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.1273205988209816</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.4813447111786767</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.5017288369462346</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.944522229021954</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0.009914664593730608</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.1451084633337025</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>0.3856086676391742</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -852,21 +1062,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.6614694368844848</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2969453680517978</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2290297373657797</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1989730504817079</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.05443996380730875</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.5567324942716604</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.7582021670941257</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.142191522285439</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.2814737977063879</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.08240161899141045</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.5883024614230024</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.6235357631135241</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.1312685951750682</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.02242524276789043</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>0.08115022261726111</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -875,21 +1115,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>-0.385003667816212</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.324008003743091</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.247626497189394</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.050403688272118</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.8641028375419654</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-0.32146397574045</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.796604045936981</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.2208572160936458</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.05659893451398582</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.069367326113356</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>-0.4159144803341423</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.344586767047856</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.1706393804048902</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.3387899966836153</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>0.742344332481266</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -902,21 +1172,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.4290698600082825</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.121326661329173</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.07235864772299554</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.2090211875252067</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.1452185510671063</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.4098636640554528</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>1.001922637885389</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.02678586306334964</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.05931417520016279</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.03473038031478537</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.419064806451485</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>1.059859785224994</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0.04835865253179743</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.1306737555814493</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0.05806611245677015</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1225,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.5447294889796589</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.6519828074996543</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1501254465546375</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.06167557142270304</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.2013026653396406</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.5182619135116797</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.5740366909771596</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1339546490082558</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.1356620911517797</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.2597068903984418</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.5033715967565586</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.7538181008433587</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.07912187517157471</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.03304228573119906</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.1443306758154181</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1278,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>-0.2909483396023483</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.71455977766824</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3230882553035285</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.6147038861372741</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.5846296283569732</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.2795622123739067</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.491004181186771</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.227618506764422</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.2996070699898929</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.3020392688415474</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>-0.3296625249340427</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>1.488757253689576</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.2276241688015984</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.3785521051484331</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.3415426725204642</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,21 +1335,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr"/>
-      <c r="P16" s="5" t="inlineStr"/>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.4433021362130627</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.4465537089697724</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.2850727736000838</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.07166089767896194</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.4562295686674785</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-0.4361158464601356</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.8570302569978507</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.0001956852266968644</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.09413853526550038</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.0547348489128832</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>-0.4397440797558455</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.6252485518031708</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>0.1340204671008964</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>-0.01468190075055277</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>0.2271448995861635</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -998,21 +1388,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr"/>
-      <c r="P17" s="5" t="inlineStr"/>
-      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.572685116189637</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.1441643738482165</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.04031903823160169</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.2132235898071836</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0.0261891652748083</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.5646173522106493</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0.4035516389735582</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.1843866720413234</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.341381767929732</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.2043728250748003</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.5389562405760909</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>0.3515250648839607</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>-0.01700910322205805</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>-0.2140410256978605</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>-0.02334929247236729</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1021,21 +1441,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr"/>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>-0.2832828612123481</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.9349917415604992</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.6123880398701663</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.4601558391147024</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1.095496276397716</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>-0.2917140880305557</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>1.422192989090964</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.2545620537032087</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.2024257415653579</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.4028115463067422</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>-0.3355280024349053</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.9899959846753571</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>0.3330191123081276</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>0.2140019012705836</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>0.5510663159956328</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1048,21 +1498,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr"/>
-      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>-0.3113782705926219</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.4435724719412469</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.01519594298908947</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.6144541295657072</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.1159671289459731</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>-0.2934129464020336</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.5074843708571652</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.1066349358914703</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>-0.08893127728783656</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.03771584882943889</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>-0.3009711455690021</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.4781536058222441</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>0.06511494139582892</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>0.1698852198576345</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>0.06959668339450201</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1071,21 +1551,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr"/>
-      <c r="P20" s="5" t="inlineStr"/>
-      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.5281610611175616</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.008952198932024763</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.2383780828446329</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1342559498332181</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.2641353286483849</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.4926504471735672</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>0.09508161578534469</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.145040913864483</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.364291460009539</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.3501688275168006</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.4410184274192559</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>0.147998560759875</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>-0.1389482288845006</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>-0.0976025944280539</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>-0.2220458559236052</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1094,21 +1604,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr"/>
-      <c r="P21" s="5" t="inlineStr"/>
-      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>0.02576319221549215</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1.364638088935107</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.3610935942505458</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>1.357853896861532</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.8147227223332694</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>-0.05811821944303294</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1.09647330073108</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>0.4911718008403727</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.2798991891169904</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>0.728908287705662</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>-0.1174465547041379</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.9429264316798548</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>0.3183263489282653</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>0.4870115159156182</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>0.5164616379067852</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1121,21 +1661,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr"/>
-      <c r="P22" s="5" t="inlineStr"/>
-      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.4973606060824473</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.657405225949547</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1218312666773424</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.128905028928547</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.135529772926811</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-0.4827058790165455</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.8423445303714354</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>-0.01525496830007993</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.05478851964559693</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.01653916457207369</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>-0.489885220171326</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.7475164432345657</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>0.0496736374578713</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>0.03035318233289785</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>0.07437640841362513</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1144,21 +1714,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr"/>
-      <c r="P23" s="5" t="inlineStr"/>
-      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.5642399392710189</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.4459953558264527</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.002619132061020366</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.02509613511643196</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.03365509564656979</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.5464632883745785</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.6538860702447942</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.101354612595429</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.1547851368171965</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.1223969705624519</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.5307380812273279</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>0.594892292213465</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>-0.01985973221109676</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>-0.06140543953915024</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>-0.04438770995769441</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1167,21 +1767,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr"/>
-      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>-0.4333707127129038</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.8982191457344355</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2549594464088403</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2947548468526144</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3559406146720401</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-0.4292339077242277</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>1.062439516957128</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.07320186904747528</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.05198307966434974</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.1760636050309192</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>-0.4436741063161257</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.9075546475933866</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>0.1329718428364035</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>0.1171220276598261</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>0.2079958987821718</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
